--- a/biology/Zoologie/Anyphops_lawrencei/Anyphops_lawrencei.xlsx
+++ b/biology/Zoologie/Anyphops_lawrencei/Anyphops_lawrencei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anyphops lawrencei est une espèce d'araignées aranéomorphes de la famille des Selenopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anyphops lawrencei est une espèce d'araignées aranéomorphes de la famille des Selenopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 5,3 mm et la femelle syntype 7,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 5,3 mm et la femelle syntype 7,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le nom Selenops pusillus par Lawrence en 1947. Ce nom étant préoccupé par  Selenops pusillus Simon, 1887, il est remplacé par Selenops lawrencei par Roewer en 1951[3]. Elle est placée dans le genre Anyphops par Benoit en 1968[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le nom Selenops pusillus par Lawrence en 1947. Ce nom étant préoccupé par  Selenops pusillus Simon, 1887, il est remplacé par Selenops lawrencei par Roewer en 1951. Elle est placée dans le genre Anyphops par Benoit en 1968.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Frederick Lawrence[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Frederick Lawrence.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Roewer, 1951 : « Neue Namen einiger Araneen-Arten. » Naturwissenschaftlichen Verein Zu Bremen, vol. 32, p. 437-456.
 Lawrence, 1947 : « A collection of Arachnida made by Dr. I. Trägårdh in Natal and Zululand (1904-1905). » Göteborgs Konglige Veternskaps- och Vitterhets-Samhälles Handlingar, sér. B, vol. 5, no 9, p. 1-41.</t>
